--- a/2/Vadim/3 kurse/EPU/2 лаба Dkfljcbr.xlsx
+++ b/2/Vadim/3 kurse/EPU/2 лаба Dkfljcbr.xlsx
@@ -1110,7 +1110,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10">
-        <f t="shared" ref="K3:K13" ca="1" si="6">INDIRECT(ADDRESS($J10+2,2))</f>
+        <f t="shared" ref="K10:K13" ca="1" si="6">INDIRECT(ADDRESS($J10+2,2))</f>
         <v>0</v>
       </c>
       <c r="L10">
